--- a/03_BOM/NANORACK_PHOTODIODE.xlsx
+++ b/03_BOM/NANORACK_PHOTODIODE.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>Footprint</t>
+  </si>
+  <si>
     <t>10nF/50V</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>Samsung Electro-Mechanics</t>
   </si>
   <si>
+    <t>CN-SMD-0603</t>
+  </si>
+  <si>
     <t>0.22uF/25V</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>KYOCERA AVX</t>
   </si>
   <si>
+    <t>CAP_TANT_1206</t>
+  </si>
+  <si>
     <t>47uF/20V</t>
   </si>
   <si>
@@ -98,34 +107,25 @@
     <t>C36, C37, C42, C43</t>
   </si>
   <si>
+    <t>CAP TANT 2312</t>
+  </si>
+  <si>
     <t>S2303</t>
   </si>
   <si>
     <t>D1, D2, D3, D4</t>
   </si>
   <si>
+    <t>SOT23-123</t>
+  </si>
+  <si>
     <t>SS54</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>HOLD</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>H1, H2, H3, H4, H5, H6, H7, H8, H9</t>
-  </si>
-  <si>
-    <t>Conn shunt</t>
-  </si>
-  <si>
-    <t>WR-PHD 2.54 mm Angled Socket Header</t>
-  </si>
-  <si>
-    <t>J1</t>
+    <t>DIO-SMD-A</t>
   </si>
   <si>
     <t>0532610971</t>
@@ -137,15 +137,6 @@
     <t>Molex</t>
   </si>
   <si>
-    <t>53261-0971</t>
-  </si>
-  <si>
-    <t>JUMP2</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
     <t>15uH/3.5A</t>
   </si>
   <si>
@@ -158,6 +149,9 @@
     <t>Bourns</t>
   </si>
   <si>
+    <t>SRP7050TA</t>
+  </si>
+  <si>
     <t>Photodiode</t>
   </si>
   <si>
@@ -182,6 +176,9 @@
     <t>Panasonic</t>
   </si>
   <si>
+    <t>RES-SMD-0603</t>
+  </si>
+  <si>
     <t>10K/1%</t>
   </si>
   <si>
@@ -251,21 +248,9 @@
     <t>3.24K/0.1%</t>
   </si>
   <si>
-    <t>ERA-3AEB3241V</t>
-  </si>
-  <si>
     <t>R23</t>
   </si>
   <si>
-    <t>ERA3AEB3241V</t>
-  </si>
-  <si>
-    <t>Test_Point</t>
-  </si>
-  <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12</t>
-  </si>
-  <si>
     <t>OPA4340</t>
   </si>
   <si>
@@ -278,6 +263,9 @@
     <t>Texas Instruments</t>
   </si>
   <si>
+    <t>SSOP16</t>
+  </si>
+  <si>
     <t>ADG1414BRUZ</t>
   </si>
   <si>
@@ -287,6 +275,9 @@
     <t>Analog Devices</t>
   </si>
   <si>
+    <t>TSSOP24</t>
+  </si>
+  <si>
     <t>REF1930</t>
   </si>
   <si>
@@ -296,6 +287,9 @@
     <t>U4</t>
   </si>
   <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
     <t>ADS8329</t>
   </si>
   <si>
@@ -305,18 +299,27 @@
     <t>ADS8329IPW</t>
   </si>
   <si>
+    <t>TSSOP16</t>
+  </si>
+  <si>
     <t>TPS5430DDAR</t>
   </si>
   <si>
     <t>U7</t>
   </si>
   <si>
+    <t>HSOP8</t>
+  </si>
+  <si>
     <t>TPS7A4533DCQR</t>
   </si>
   <si>
     <t>U8</t>
   </si>
   <si>
+    <t>SOT223-6</t>
+  </si>
+  <si>
     <t>ICL7660</t>
   </si>
   <si>
@@ -327,13 +330,73 @@
   </si>
   <si>
     <t>Renesas</t>
+  </si>
+  <si>
+    <t>SO8</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t>EVVO</t>
+  </si>
+  <si>
+    <t>0500798000</t>
+  </si>
+  <si>
+    <t>CONN SOCKET 26-28AWG CRIMP TIN</t>
+  </si>
+  <si>
+    <t>Mating for J2</t>
+  </si>
+  <si>
+    <t>Cos for mating J2</t>
+  </si>
+  <si>
+    <t>0510210900</t>
+  </si>
+  <si>
+    <t>CONN RCPT HSG 9POS 1.25MM</t>
+  </si>
+  <si>
+    <t>532610971</t>
+  </si>
+  <si>
+    <t>510210800</t>
+  </si>
+  <si>
+    <t>500798000</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3241V</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>ADC 1MHZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +404,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +461,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,18 +508,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,20 +836,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -693,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -701,602 +873,823 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="H9" s="1"/>
+      <c r="I9" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="H10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="10">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="17">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="H20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="H22" s="1"/>
+      <c r="I22" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="H23" s="1"/>
+      <c r="I23" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="H24" s="1"/>
+      <c r="I24" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="H26" s="1"/>
+      <c r="I26" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="H27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="F28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="H28" s="1"/>
+      <c r="I28" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="H29" s="1"/>
+      <c r="I29" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="1">
+        <f>SUM(G2:G9,G12:G30)</f>
+        <v>111</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
